--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PinMapping" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>Physical Pin #</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>×</t>
+  </si>
+  <si>
+    <t>PPS</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +558,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,19 +845,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
@@ -864,15 +870,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="1"/>
       <c r="J1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -883,25 +890,22 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -909,218 +913,215 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>5</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>8</v>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>9</v>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>11</v>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1128,919 +1129,852 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>20</v>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>29</v>
+      <c r="B30" t="s">
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>35</v>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="E39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>39</v>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="E40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>40</v>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="E41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="E42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="E43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="E44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="E45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="E46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s">
         <v>43</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="E49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="1">
+      <c r="E50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s">
         <v>47</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="1">
+      <c r="E53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="E54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>54</v>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="E55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>55</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>59</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
-        <v>60</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
         <v>56</v>
       </c>
+      <c r="F65"/>
+      <c r="H65" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -843,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,14 +858,14 @@
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
     <col min="13" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,13 +880,10 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -908,8 +905,10 @@
       <c r="G2" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -925,8 +924,10 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -942,8 +943,10 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -959,8 +962,10 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -976,8 +981,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -993,8 +1000,10 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1010,8 +1019,10 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1027,8 +1038,10 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1044,8 +1057,10 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1061,8 +1076,10 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1078,8 +1095,10 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1089,8 +1108,10 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1101,8 +1122,10 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1124,8 +1147,10 @@
       <c r="G15" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1141,8 +1166,10 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1158,8 +1185,10 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1175,8 +1204,10 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1192,8 +1223,10 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1209,8 +1242,10 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1226,8 +1261,10 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1243,8 +1280,10 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1260,8 +1299,10 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1277,8 +1318,10 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1294,8 +1337,10 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1311,8 +1356,10 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1328,8 +1375,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1339,8 +1388,10 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1362,8 +1413,10 @@
       <c r="G29" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1379,8 +1432,10 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1396,8 +1451,10 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1413,8 +1470,10 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1425,8 +1484,10 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1448,8 +1509,10 @@
       <c r="G34" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1465,8 +1528,10 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1482,8 +1547,10 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1494,8 +1561,10 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1517,8 +1586,10 @@
       <c r="G38" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1540,8 +1611,10 @@
       <c r="G39" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1563,8 +1636,10 @@
       <c r="G40" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1586,8 +1661,10 @@
       <c r="G41" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1609,8 +1686,10 @@
       <c r="G42" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1632,8 +1711,10 @@
       <c r="G43" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1655,8 +1736,10 @@
       <c r="G44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1678,8 +1761,10 @@
       <c r="G45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1701,8 +1786,10 @@
       <c r="G46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1712,8 +1799,10 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1735,8 +1824,10 @@
       <c r="G48" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1755,8 +1846,10 @@
       <c r="G49" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1775,8 +1868,10 @@
       <c r="G50" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1787,8 +1882,10 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1810,8 +1907,10 @@
       <c r="G52" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1830,8 +1929,10 @@
       <c r="G53" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1850,8 +1951,10 @@
       <c r="G54" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1870,8 +1973,10 @@
       <c r="G55" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1879,9 +1984,10 @@
         <v>8</v>
       </c>
       <c r="F56"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1889,9 +1995,10 @@
         <v>50</v>
       </c>
       <c r="F57"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1899,9 +2006,10 @@
         <v>51</v>
       </c>
       <c r="F58"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1909,9 +2017,10 @@
         <v>52</v>
       </c>
       <c r="F59"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1919,9 +2028,10 @@
         <v>8</v>
       </c>
       <c r="F60"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1929,9 +2039,10 @@
         <v>9</v>
       </c>
       <c r="F61"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1939,9 +2050,10 @@
         <v>53</v>
       </c>
       <c r="F62"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1949,9 +2061,10 @@
         <v>54</v>
       </c>
       <c r="F63"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1959,9 +2072,10 @@
         <v>55</v>
       </c>
       <c r="F64"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1969,7 +2083,12 @@
         <v>56</v>
       </c>
       <c r="F65"/>
-      <c r="H65" s="1"/>
+      <c r="I65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+      <c r="L66"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
   <si>
     <t>Physical Pin #</t>
   </si>
@@ -477,9 +477,6 @@
     <t>SPI MISO</t>
   </si>
   <si>
-    <t>ICPS</t>
-  </si>
-  <si>
     <t>PGD</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>PPS</t>
+  </si>
+  <si>
+    <t>ICSP</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>58</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="1"/>
@@ -1252,11 +1252,11 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>128</v>
+      <c r="C21" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1271,17 +1271,16 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>129</v>
+      <c r="C22" t="s">
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>103</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="I22"/>
-      <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1290,17 +1289,16 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>130</v>
+      <c r="C23" t="s">
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>104</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="I23"/>
-      <c r="L23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1310,16 +1308,15 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>105</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="I24"/>
-      <c r="L24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1328,14 +1325,8 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="I25"/>
       <c r="L25"/>
@@ -1347,15 +1338,21 @@
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I26"/>
       <c r="L26"/>
     </row>
@@ -1367,13 +1364,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="I27"/>
       <c r="L27"/>
@@ -1384,6 +1381,12 @@
       </c>
       <c r="B28" t="s">
         <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1398,21 +1401,15 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="1"/>
       <c r="I29"/>
       <c r="L29"/>
     </row>
@@ -1423,12 +1420,7 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" s="1"/>
@@ -1442,15 +1434,21 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I31"/>
       <c r="L31"/>
     </row>
@@ -1461,11 +1459,11 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>107</v>
+      <c r="C32" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1480,7 +1478,12 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" s="1"/>
@@ -1494,21 +1497,10 @@
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="1"/>
       <c r="I34"/>
       <c r="L34"/>
     </row>
@@ -1519,15 +1511,21 @@
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I35"/>
       <c r="L35"/>
     </row>
@@ -1539,14 +1537,20 @@
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="1">
+        <v>58</v>
+      </c>
       <c r="I36"/>
       <c r="L36"/>
     </row>
@@ -1557,10 +1561,21 @@
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37" s="1"/>
+      <c r="C37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="1">
+        <v>61</v>
+      </c>
       <c r="I37"/>
       <c r="L37"/>
     </row>
@@ -1571,20 +1586,20 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="1">
         <v>62</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I38"/>
       <c r="L38"/>
@@ -1597,19 +1612,19 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I39"/>
       <c r="L39"/>
@@ -1622,19 +1637,19 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40"/>
       <c r="L40"/>
@@ -1647,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G41" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I41"/>
       <c r="L41"/>
@@ -1672,19 +1687,19 @@
         <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="I42"/>
       <c r="L42"/>
@@ -1697,19 +1712,19 @@
         <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I43"/>
       <c r="L43"/>
@@ -1722,19 +1737,19 @@
         <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I44"/>
       <c r="L44"/>
@@ -1747,19 +1762,19 @@
         <v>40</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I45"/>
       <c r="L45"/>
@@ -1772,19 +1787,19 @@
         <v>41</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="I46"/>
       <c r="L46"/>
@@ -1838,10 +1853,10 @@
         <v>35</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1">
         <v>37</v>
@@ -1860,10 +1875,10 @@
         <v>34</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="1">
         <v>36</v>
@@ -1893,7 +1908,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>71</v>
@@ -1921,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" s="1">
         <v>9</v>
@@ -1940,13 +1955,13 @@
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G54" s="1">
         <v>16</v>
@@ -1962,13 +1977,13 @@
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1">
         <v>15</v>

--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,10 +843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,6 +2107,7 @@
       <c r="L66"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>

--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="pin mapping" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
   <si>
     <t>Physical Pin #</t>
   </si>
@@ -186,9 +186,6 @@
     <t>LCD_RESET</t>
   </si>
   <si>
-    <t>LCD Reset</t>
-  </si>
-  <si>
     <t>AVDD</t>
   </si>
   <si>
@@ -210,12 +207,6 @@
     <t>AN48/RPB8/PMA10/RB8</t>
   </si>
   <si>
-    <t>BT_RESET</t>
-  </si>
-  <si>
-    <t>Reset bluetooth chip</t>
-  </si>
-  <si>
     <t>AN49/RPB9/PMA7/RB9</t>
   </si>
   <si>
@@ -279,18 +270,12 @@
     <t>I2C_SCL</t>
   </si>
   <si>
-    <t>I²C Clock</t>
-  </si>
-  <si>
     <t>OSC2/CLKO/RC15</t>
   </si>
   <si>
     <t>I2C_SDA</t>
   </si>
   <si>
-    <t>I²C Data</t>
-  </si>
-  <si>
     <t>VBUS</t>
   </si>
   <si>
@@ -387,12 +372,6 @@
     <t>AERXCLK/AEREFCLK/ECRS/RPD11/PMCS1/PMA14/RD11</t>
   </si>
   <si>
-    <t>LCD_CS</t>
-  </si>
-  <si>
-    <t>LCD Chip Select (May not use)</t>
-  </si>
-  <si>
     <t>AERXD1/ETXD3/RPD0/RTCC/INT0/RD0</t>
   </si>
   <si>
@@ -448,12 +427,168 @@
   </si>
   <si>
     <t>AN18/ERXERR/PMD4/RE4</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>INT3</t>
+  </si>
+  <si>
+    <t>INT3R</t>
+  </si>
+  <si>
+    <t>INT1R</t>
+  </si>
+  <si>
+    <t>INTERRUPTS</t>
+  </si>
+  <si>
+    <t>INT0</t>
+  </si>
+  <si>
+    <t>UNUSED</t>
+  </si>
+  <si>
+    <t>SDI2R</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>SPI 2
+(pg. 26)</t>
+  </si>
+  <si>
+    <t>PPS on pg 251</t>
+  </si>
+  <si>
+    <t>Programming Pins</t>
+  </si>
+  <si>
+    <t>RPB3R</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>I²C Clock (SCL)</t>
+  </si>
+  <si>
+    <t>I²C Data (SDA)</t>
+  </si>
+  <si>
+    <t>I²C 1
+(pg. 27)</t>
+  </si>
+  <si>
+    <t>Will use on rev 1 because software might need to read from screen</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INT4R</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Do I really need these?</t>
+  </si>
+  <si>
+    <t>Bluetooth: to figure out function</t>
+  </si>
+  <si>
+    <t>Analog (AN49/RB9)</t>
+  </si>
+  <si>
+    <t>RPG7R</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>RPG8R</t>
+  </si>
+  <si>
+    <t>RPB15R</t>
+  </si>
+  <si>
+    <t>LCD Active LOW Reset</t>
+  </si>
+  <si>
+    <t>RPF4R</t>
+  </si>
+  <si>
+    <t>RPF5R</t>
+  </si>
+  <si>
+    <t>Analog/Do I really need this?</t>
+  </si>
+  <si>
+    <t>Active LOW Reset Bluetooth</t>
+  </si>
+  <si>
+    <r>
+      <t>BT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_RESET</t>
+    </r>
+  </si>
+  <si>
+    <t>RPG9R</t>
+  </si>
+  <si>
+    <t>RPB5R</t>
+  </si>
+  <si>
+    <t>RPB4R</t>
+  </si>
+  <si>
+    <t>RPB2R</t>
+  </si>
+  <si>
+    <t>RPB7R</t>
+  </si>
+  <si>
+    <t>RPB0R</t>
+  </si>
+  <si>
+    <t>PRB6R</t>
+  </si>
+  <si>
+    <t>RPB8R</t>
+  </si>
+  <si>
+    <t>RPB10R</t>
+  </si>
+  <si>
+    <t>Do I really need these?
+(RB11 Not PPS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,7 +1022,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -930,21 +1065,51 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -984,12 +1149,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1297,1031 +1499,1511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="F1" s="10"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E3" s="4" t="str">
+        <f>$E58</f>
+        <v>INT1R</v>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f>$F$58</f>
+        <v>0011</v>
+      </c>
+      <c r="G3" s="4">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="E4" s="4" t="str">
+        <f>$E61</f>
+        <v>INT4R</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>$F$61</f>
+        <v>0000</v>
+      </c>
+      <c r="G4" s="4">
+        <f>$G61</f>
+        <v>51</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E5" s="4" t="str">
+        <f>$E60</f>
+        <v>INT3R</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f>$F60</f>
+        <v>0000</v>
+      </c>
+      <c r="G5" s="4">
+        <f>$G60</f>
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="4">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="E10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="4">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="E11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="4">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="4">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="4">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="4">
+        <v>23</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="4">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="4">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="4">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="4">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G34" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="4">
+        <v>58</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="4">
+        <v>61</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="4">
+        <v>62</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="4">
+        <v>63</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="4">
+        <v>64</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="4">
+        <v>3</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="4">
+        <v>52</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="4">
+        <v>53</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="4">
+        <v>37</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="4">
+        <v>36</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="4">
+        <v>9</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="4">
+        <v>16</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="4">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="4">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B65" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H22:H23"/>
   </mergeCells>
+  <conditionalFormatting sqref="G3:G12 G15:G23 G26:G28 G31:G32 G35:G44 G48:G49">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G12 G15:G23 G27:G28 G31:G32 G35:G44 G48:G49 G52:G54 G58 G60">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A65">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($G$2:$G$49,A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F27:F28" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -1076,12 +1076,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1096,9 +1090,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,6 +1097,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,1464 +1519,1464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="2" t="str">
         <f>$E58</f>
         <v>INT1R</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="7" t="str">
         <f>$F$58</f>
         <v>0011</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>46</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="2" t="str">
         <f>$E61</f>
         <v>INT4R</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="7" t="str">
         <f>$F$61</f>
         <v>0000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <f>$G61</f>
         <v>51</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="2" t="str">
         <f>$E60</f>
         <v>INT3R</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F5" s="7" t="str">
         <f>$F60</f>
         <v>0000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <f>$G60</f>
         <v>50</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>41</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>42</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>16</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G11" s="2">
         <v>18</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="2">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2">
+        <v>23</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2">
+        <v>24</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="2">
+        <v>43</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="2">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="2">
+        <v>61</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="2">
+        <v>62</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="2">
+        <v>63</v>
+      </c>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="2">
+        <v>64</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="2">
+        <v>52</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="2">
+        <v>53</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="2">
+        <v>37</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="2">
+        <v>36</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="2">
+        <v>9</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="2">
+        <v>15</v>
+      </c>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="2">
+        <v>46</v>
+      </c>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="4">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G60" s="2">
+        <v>50</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="4">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="4">
-        <v>22</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="4">
-        <v>30</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="G61" s="2">
         <v>51</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="4">
-        <v>6</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="4">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="4">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="4">
-        <v>12</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="4">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="B64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="4">
-        <v>23</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="4">
-        <v>24</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="4">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="4">
-        <v>15</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="4">
-        <v>44</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="4">
-        <v>43</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="4">
-        <v>58</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="4">
-        <v>61</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="4">
-        <v>62</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="4">
-        <v>63</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="4">
-        <v>64</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="4">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="4">
-        <v>3</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="4">
-        <v>52</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="4">
-        <v>53</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="4">
-        <v>37</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="4">
-        <v>36</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="4">
-        <v>9</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="4">
-        <v>16</v>
-      </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="4">
-        <v>15</v>
-      </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="4">
-        <v>46</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" s="4">
-        <v>50</v>
-      </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="4">
-        <v>51</v>
-      </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="5"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
   <si>
     <t>Physical Pin #</t>
   </si>
@@ -583,6 +583,9 @@
   <si>
     <t>Do I really need these?
 (RB11 Not PPS)</t>
+  </si>
+  <si>
+    <t>Probab gonna change processor and screen on rev 2 to support MIPI</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1518,7 @@
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2922,7 +2925,9 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -2936,7 +2941,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -2950,7 +2955,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -2979,7 +2984,8 @@
       <c r="H66" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H62:H64"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="H52:H54"/>

--- a/Hardware/PinMapping.xlsx
+++ b/Hardware/PinMapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
   <si>
     <t>Physical Pin #</t>
   </si>
@@ -586,6 +586,15 @@
   </si>
   <si>
     <t>Probab gonna change processor and screen on rev 2 to support MIPI</t>
+  </si>
+  <si>
+    <t>T_INT</t>
+  </si>
+  <si>
+    <t>Touch Cont. Interrupt</t>
+  </si>
+  <si>
+    <t>RPF0R</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1079,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,9 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,6 +1115,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,22 +1537,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1548,19 +1563,19 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2"/>
@@ -1579,11 +1594,11 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>$E58</f>
+        <f>$E59</f>
         <v>INT1R</v>
       </c>
-      <c r="F3" s="7" t="str">
-        <f>$F$58</f>
+      <c r="F3" s="6" t="str">
+        <f>$F$59</f>
         <v>0011</v>
       </c>
       <c r="G3" s="2">
@@ -1605,15 +1620,15 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>$E61</f>
+        <f>$E62</f>
         <v>INT4R</v>
       </c>
-      <c r="F4" s="7" t="str">
-        <f>$F$61</f>
+      <c r="F4" s="6" t="str">
+        <f>$F$62</f>
         <v>0000</v>
       </c>
       <c r="G4" s="2">
-        <f>$G61</f>
+        <f>$G62</f>
         <v>51</v>
       </c>
       <c r="H4" s="2"/>
@@ -1632,15 +1647,15 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>$E60</f>
+        <f>$E61</f>
         <v>INT3R</v>
       </c>
-      <c r="F5" s="7" t="str">
-        <f>$F60</f>
+      <c r="F5" s="6" t="str">
+        <f>$F61</f>
         <v>0000</v>
       </c>
       <c r="G5" s="2">
-        <f>$G60</f>
+        <f>$G61</f>
         <v>50</v>
       </c>
       <c r="H5" s="2"/>
@@ -1661,7 +1676,7 @@
       <c r="E6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G6" s="2">
@@ -1685,7 +1700,7 @@
       <c r="E7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G7" s="2">
@@ -1694,7 +1709,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1709,7 +1724,7 @@
       <c r="E8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G8" s="2">
@@ -1720,7 +1735,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1735,7 +1750,7 @@
       <c r="E9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G9" s="2">
@@ -1746,7 +1761,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1761,13 +1776,13 @@
       <c r="E10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G10" s="2">
         <v>17</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1787,13 +1802,13 @@
       <c r="E11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G11" s="2">
         <v>18</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1811,7 +1826,7 @@
       <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="2">
@@ -1828,11 +1843,21 @@
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="2">
+        <v>56</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,22 +1867,6 @@
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1866,20 +1875,20 @@
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>166</v>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="2">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1890,22 +1899,22 @@
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="12">
+        <v>30</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1914,22 +1923,22 @@
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="2">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2"/>
+      <c r="G17" s="12">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1938,22 +1947,22 @@
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="2">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2"/>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="12">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1962,122 +1971,122 @@
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="C19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="2">
-        <v>11</v>
-      </c>
-      <c r="H19" s="2"/>
+      <c r="G19" s="12">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="C20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="2">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="G20" s="12">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="2">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="12">
+        <v>12</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="C22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="2">
-        <v>23</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="12">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="2">
-        <v>24</v>
-      </c>
-      <c r="H23" s="13"/>
+      <c r="C23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="12">
+        <v>23</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2086,12 +2095,22 @@
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="C24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="12">
+        <v>24</v>
+      </c>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2100,72 +2119,62 @@
       <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
+      <c r="C26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="2">
-        <v>4</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+        <v>8</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="2">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13"/>
+      <c r="C27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="12">
+        <v>4</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2174,20 +2183,20 @@
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>150</v>
+      <c r="C28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="2">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="G28" s="12">
+        <v>13</v>
       </c>
       <c r="H28" s="13"/>
     </row>
@@ -2198,12 +2207,22 @@
       <c r="B29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="C29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="12">
+        <v>15</v>
+      </c>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -2212,158 +2231,148 @@
       <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>90</v>
+      <c r="C31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="2">
-        <v>44</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+        <v>8</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="2">
-        <v>43</v>
-      </c>
-      <c r="H32" s="13"/>
+      <c r="C32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="12">
+        <v>44</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="C33" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="12">
+        <v>43</v>
+      </c>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
+      <c r="C35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="2">
-        <v>58</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="2">
-        <v>61</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="C36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="12">
+        <v>58</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -2372,22 +2381,22 @@
       <c r="B37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="2">
-        <v>62</v>
-      </c>
-      <c r="H37" s="2"/>
+      <c r="C37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="12">
+        <v>61</v>
+      </c>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -2396,22 +2405,22 @@
       <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="2">
-        <v>63</v>
-      </c>
-      <c r="H38" s="2"/>
+      <c r="C38" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="12">
+        <v>62</v>
+      </c>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -2420,70 +2429,70 @@
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="2">
-        <v>64</v>
-      </c>
-      <c r="H39" s="2"/>
+      <c r="C39" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="12">
+        <v>63</v>
+      </c>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2"/>
+      <c r="C40" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="12">
+        <v>64</v>
+      </c>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2</v>
-      </c>
-      <c r="H41" s="2"/>
+      <c r="C41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2492,22 +2501,22 @@
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="2">
-        <v>3</v>
-      </c>
-      <c r="H42" s="2"/>
+      <c r="C42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="12">
+        <v>2</v>
+      </c>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -2516,62 +2525,72 @@
       <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="2">
-        <v>52</v>
-      </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="12">
+        <v>3</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="2">
-        <v>53</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="12">
+        <v>52</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
+      <c r="C45" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="12">
+        <v>53</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -2580,12 +2599,12 @@
       <c r="B46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -2594,66 +2613,58 @@
       <c r="B47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="2"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>90</v>
+      <c r="C48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="2">
-        <v>37</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="2">
-        <v>36</v>
-      </c>
-      <c r="H49" s="2"/>
+      <c r="C49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="12">
+        <v>37</v>
+      </c>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2662,12 +2673,20 @@
       <c r="B50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="C50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="12">
+        <v>36</v>
+      </c>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -2676,22 +2695,12 @@
       <c r="B51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="2"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -2700,22 +2709,22 @@
       <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>90</v>
+      <c r="C52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -2724,20 +2733,22 @@
       <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="2">
-        <v>16</v>
-      </c>
-      <c r="H53" s="13"/>
+      <c r="C53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="12">
+        <v>9</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -2746,58 +2757,56 @@
       <c r="B54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="2">
-        <v>15</v>
-      </c>
-      <c r="H54" s="13"/>
+      <c r="C54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="12">
+        <v>16</v>
+      </c>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="C55" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="12">
+        <v>15</v>
+      </c>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="2"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -2806,22 +2815,22 @@
       <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>90</v>
+      <c r="C57" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -2830,20 +2839,22 @@
       <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="2">
-        <v>46</v>
-      </c>
-      <c r="H58" s="2"/>
+      <c r="C58" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -2852,96 +2863,104 @@
       <c r="B59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="2"/>
+      <c r="C59" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="12">
+        <v>46</v>
+      </c>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" s="2">
-        <v>50</v>
-      </c>
-      <c r="H60" s="2"/>
+      <c r="C60" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="C61" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G61" s="2">
-        <v>51</v>
-      </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="12">
+        <v>50</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="12">
+        <v>51</v>
+      </c>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="13"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -2950,12 +2969,11 @@
       <c r="B64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="13"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -2964,52 +2982,47 @@
       <c r="B65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H62:H64"/>
+  <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H31:H32"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H27:H29"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G12 G15:G23 G26:G28 G31:G32 G35:G44 G48:G49">
+  <conditionalFormatting sqref="G16:G24 G3:G12 G27:G29 G32:G33 G36:G45 G49:G50">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G12 G15:G23 G27:G28 G31:G32 G35:G44 G48:G49 G52:G54 G58 G60">
+  <conditionalFormatting sqref="G3:G12 G16:G24 G28:G29 G32:G33 G36:G45 G49:G50 G53:G55 G59 G61">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A65">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($G$2:$G$49,A2)</formula>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF($G$2:$G$50,A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F27:F28" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>